--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AR2_50_6_qoq_errors_first_eval_20101_20181.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AR2_50_6_qoq_errors_first_eval_20101_20181.xlsx
@@ -517,12 +517,6 @@
       <c r="F3">
         <v>0.5040425926957953</v>
       </c>
-      <c r="G3">
-        <v>-0.1932960119371557</v>
-      </c>
-      <c r="H3">
-        <v>0.04367710249015017</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -569,12 +563,6 @@
       <c r="F5">
         <v>0.906862924893769</v>
       </c>
-      <c r="G5">
-        <v>0.2504397716903112</v>
-      </c>
-      <c r="H5">
-        <v>-0.4078772338215886</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -621,12 +609,6 @@
       <c r="F7">
         <v>-0.09205111059441351</v>
       </c>
-      <c r="G7">
-        <v>-0.5259549742272362</v>
-      </c>
-      <c r="H7">
-        <v>0.452935276392097</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -673,12 +655,6 @@
       <c r="F9">
         <v>-0.4138532542967197</v>
       </c>
-      <c r="G9">
-        <v>0.01293740259710929</v>
-      </c>
-      <c r="H9">
-        <v>-0.153689426264273</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -725,12 +701,6 @@
       <c r="F11">
         <v>-0.01502993377330319</v>
       </c>
-      <c r="G11">
-        <v>-0.410047744940668</v>
-      </c>
-      <c r="H11">
-        <v>-0.1553091497739889</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -777,12 +747,6 @@
       <c r="F13">
         <v>-0.1052864881356162</v>
       </c>
-      <c r="G13">
-        <v>-0.2842023355090271</v>
-      </c>
-      <c r="H13">
-        <v>-0.2947364119262331</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -829,12 +793,6 @@
       <c r="F15">
         <v>-0.2486761060184952</v>
       </c>
-      <c r="G15">
-        <v>0.06283442082819635</v>
-      </c>
-      <c r="H15">
-        <v>-0.09063329381595758</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -880,12 +838,6 @@
       </c>
       <c r="F17">
         <v>0.3877598625592121</v>
-      </c>
-      <c r="G17">
-        <v>-0.02448210058422801</v>
-      </c>
-      <c r="H17">
-        <v>0.4720825582591874</v>
       </c>
     </row>
     <row r="18" spans="1:8">
